--- a/res/user_data/questionare.xlsx
+++ b/res/user_data/questionare.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <x:si>
     <x:t xml:space="preserve">ID</x:t>
   </x:si>
@@ -185,6 +185,21 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Neutral</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">25</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">24</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">28</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -281,8 +296,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AQ2" insertRow="1" totalsRowShown="0">
-  <x:autoFilter ref="A1:AQ2"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AQ5" insertRow="1" totalsRowShown="0">
+  <x:autoFilter ref="A1:AQ5"/>
   <x:tableColumns count="43">
     <x:tableColumn id="1" uniqueName="1" name="ID" dataDxfId="0"/>
     <x:tableColumn id="2" uniqueName="2" name="Start time" dataDxfId="3"/>
@@ -940,11 +955,392 @@
         <x:v>51</x:v>
       </x:c>
     </x:row>
+    <x:row r="3" hidden="0">
+      <x:c r="A3">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B3" s="2">
+        <x:v>45223.6846296296</x:v>
+      </x:c>
+      <x:c r="C3" s="2">
+        <x:v>45223.7124189815</x:v>
+      </x:c>
+      <x:c r="D3" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E3" s="10" t="s"/>
+      <x:c r="F3" s="2"/>
+      <x:c r="G3" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="H3" s="7" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="I3" s="7" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="J3" s="10" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="K3" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="L3" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="M3" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="N3" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="O3" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="P3" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="Q3" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="R3" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="S3" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="T3" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="U3" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="V3" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="W3" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="X3" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="Y3" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="Z3" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AA3" s="10" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="AB3" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AC3" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="AD3" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AE3" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="AF3" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AG3" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AH3" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AI3" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AJ3" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AK3" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AL3" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AM3" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AN3" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AO3" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AP3" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AQ3" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" hidden="0">
+      <x:c r="A4">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B4" s="2">
+        <x:v>45223.9020486111</x:v>
+      </x:c>
+      <x:c r="C4" s="2">
+        <x:v>45223.9115509259</x:v>
+      </x:c>
+      <x:c r="D4" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E4" s="10" t="s"/>
+      <x:c r="F4" s="2"/>
+      <x:c r="G4" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="H4" s="7" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="I4" s="7" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="J4" s="10" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="K4" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="L4" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="M4" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="N4" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="O4" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="P4" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="Q4" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="R4" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="S4" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="T4" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="U4" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="V4" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="W4" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="X4" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="Y4" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="Z4" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AA4" s="10" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="AB4" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AC4" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AD4" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AE4" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="AF4" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AG4" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AH4" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AI4" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AJ4" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AK4" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AL4" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AM4" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AN4" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AO4" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AP4" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AQ4" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" hidden="0">
+      <x:c r="A5">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B5" s="2">
+        <x:v>45224.7378587963</x:v>
+      </x:c>
+      <x:c r="C5" s="2">
+        <x:v>45224.7467476852</x:v>
+      </x:c>
+      <x:c r="D5" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E5" s="10" t="s"/>
+      <x:c r="F5" s="2"/>
+      <x:c r="G5" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="H5" s="7" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I5" s="7" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="J5" s="10" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="K5" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="L5" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="M5" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="N5" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="O5" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="P5" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="Q5" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="R5" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="S5" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="T5" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="U5" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="V5" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="W5" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="X5" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="Y5" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="Z5" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AA5" s="10" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="AB5" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AC5" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AD5" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AE5" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="AF5" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AG5" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AH5" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AI5" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AJ5" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AK5" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AL5" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AM5" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="AN5" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AO5" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AP5" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AQ5" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <x:tableParts count="1">
-    <x:tablePart r:id="Rbb42255e39344a2a"/>
+    <x:tablePart r:id="R3074dc34b9544775"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/res/user_data/questionare.xlsx
+++ b/res/user_data/questionare.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <x:si>
     <x:t xml:space="preserve">ID</x:t>
   </x:si>
@@ -200,6 +200,27 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">28</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">9</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">26</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">3</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">60</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">7</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">8</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">27</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -296,8 +317,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AQ5" insertRow="1" totalsRowShown="0">
-  <x:autoFilter ref="A1:AQ5"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AQ10" insertRow="1" totalsRowShown="0">
+  <x:autoFilter ref="A1:AQ10"/>
   <x:tableColumns count="43">
     <x:tableColumn id="1" uniqueName="1" name="ID" dataDxfId="0"/>
     <x:tableColumn id="2" uniqueName="2" name="Start time" dataDxfId="3"/>
@@ -1336,11 +1357,646 @@
         <x:v>51</x:v>
       </x:c>
     </x:row>
+    <x:row r="6" hidden="0">
+      <x:c r="A6">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B6" s="2">
+        <x:v>45224.7830787037</x:v>
+      </x:c>
+      <x:c r="C6" s="2">
+        <x:v>45224.7936458333</x:v>
+      </x:c>
+      <x:c r="D6" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E6" s="10" t="s"/>
+      <x:c r="F6" s="2"/>
+      <x:c r="G6" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="H6" s="7" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="I6" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="J6" s="10" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="K6" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L6" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="M6" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="N6" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="O6" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="P6" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="Q6" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="R6" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="S6" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="T6" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="U6" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="V6" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="W6" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="X6" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="Y6" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="Z6" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AA6" s="10" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="AB6" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AC6" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AD6" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AE6" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AF6" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AG6" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AH6" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AI6" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AJ6" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AK6" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AL6" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AM6" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AN6" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AO6" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AP6" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AQ6" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" hidden="0">
+      <x:c r="A7">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B7" s="2">
+        <x:v>45224.8342476852</x:v>
+      </x:c>
+      <x:c r="C7" s="2">
+        <x:v>45224.8468171296</x:v>
+      </x:c>
+      <x:c r="D7" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E7" s="10" t="s"/>
+      <x:c r="F7" s="2"/>
+      <x:c r="G7" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="H7" s="7" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="I7" s="7" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="J7" s="10" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="K7" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="L7" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="M7" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="N7" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="O7" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="P7" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="Q7" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="R7" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="S7" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="T7" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="U7" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="V7" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="W7" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="X7" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="Y7" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="Z7" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AA7" s="10" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="AB7" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AC7" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AD7" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AE7" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AF7" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AG7" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AH7" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AI7" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AJ7" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="AK7" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AL7" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AM7" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AN7" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AO7" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AP7" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AQ7" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" hidden="0">
+      <x:c r="A8">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B8" s="2">
+        <x:v>45224.9413657407</x:v>
+      </x:c>
+      <x:c r="C8" s="2">
+        <x:v>45224.9657638889</x:v>
+      </x:c>
+      <x:c r="D8" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E8" s="10" t="s"/>
+      <x:c r="F8" s="2"/>
+      <x:c r="G8" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="H8" s="7" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I8" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="J8" s="10" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="K8" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L8" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="M8" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="N8" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="O8" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="P8" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="Q8" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="R8" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="S8" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="T8" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="U8" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="V8" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="W8" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="X8" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="Y8" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="Z8" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AA8" s="10" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="AB8" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AC8" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AD8" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AE8" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="AF8" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="AG8" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AH8" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AI8" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AJ8" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AK8" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AL8" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AM8" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AN8" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AO8" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AP8" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AQ8" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" hidden="0">
+      <x:c r="A9">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B9" s="2">
+        <x:v>45224.7881018519</x:v>
+      </x:c>
+      <x:c r="C9" s="2">
+        <x:v>45224.9814814815</x:v>
+      </x:c>
+      <x:c r="D9" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E9" s="10" t="s"/>
+      <x:c r="F9" s="2"/>
+      <x:c r="G9" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="H9" s="7" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="I9" s="7" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="J9" s="10" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="K9" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L9" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="M9" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="N9" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="O9" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="P9" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="Q9" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="R9" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="S9" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="T9" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="U9" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="V9" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="W9" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="X9" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="Y9" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="Z9" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AA9" s="10" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="AB9" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AC9" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AD9" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AE9" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AF9" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AG9" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="AH9" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AI9" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AJ9" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AK9" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AL9" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AM9" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="AN9" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AO9" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AP9" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AQ9" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" hidden="0">
+      <x:c r="A10">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B10" s="2">
+        <x:v>45225.018275463</x:v>
+      </x:c>
+      <x:c r="C10" s="2">
+        <x:v>45225.1474305556</x:v>
+      </x:c>
+      <x:c r="D10" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E10" s="10" t="s"/>
+      <x:c r="F10" s="2"/>
+      <x:c r="G10" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="H10" s="7" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="I10" s="7" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="J10" s="10" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="K10" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="L10" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="M10" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="N10" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="O10" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="P10" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="Q10" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="R10" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="S10" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="T10" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="U10" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="V10" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="W10" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="X10" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="Y10" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="Z10" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AA10" s="10" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="AB10" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AC10" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AD10" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AE10" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AF10" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AG10" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AH10" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AI10" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AJ10" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AK10" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AL10" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AM10" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AN10" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AO10" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AP10" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AQ10" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <x:tableParts count="1">
-    <x:tablePart r:id="R3074dc34b9544775"/>
+    <x:tablePart r:id="R2cb2a6f052224a73"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/res/user_data/questionare.xlsx
+++ b/res/user_data/questionare.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <x:si>
     <x:t xml:space="preserve">ID</x:t>
   </x:si>
@@ -40,6 +40,9 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Language</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Last modified time</x:t>
@@ -221,6 +224,18 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">27</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">19</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">20</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">English (United Kingdom)‎</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">21</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -317,52 +332,53 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AQ10" insertRow="1" totalsRowShown="0">
-  <x:autoFilter ref="A1:AQ10"/>
-  <x:tableColumns count="43">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AR13" insertRow="1" totalsRowShown="0">
+  <x:autoFilter ref="A1:AR13"/>
+  <x:tableColumns count="44">
     <x:tableColumn id="1" uniqueName="1" name="ID" dataDxfId="0"/>
     <x:tableColumn id="2" uniqueName="2" name="Start time" dataDxfId="3"/>
     <x:tableColumn id="3" uniqueName="3" name="Completion time" dataDxfId="3"/>
     <x:tableColumn id="4" uniqueName="4" name="Email" dataDxfId="0"/>
     <x:tableColumn id="5" uniqueName="5" name="Name" dataDxfId="0"/>
-    <x:tableColumn id="6" uniqueName="6" name="Last modified time" dataDxfId="3"/>
-    <x:tableColumn id="7" uniqueName="7" name="​Experiment Description&#10;&#10;The aim of the project is to determine how the communication style of a chatbot impacts the perceived quality of it. The communication styles vary on formality of language..." dataDxfId="0"/>
-    <x:tableColumn id="8" uniqueName="8" name="Participant code" dataDxfId="0"/>
-    <x:tableColumn id="9" uniqueName="9" name="Age" dataDxfId="0"/>
-    <x:tableColumn id="10" uniqueName="10" name="Please complete the first three trials" dataDxfId="0"/>
-    <x:tableColumn id="11" uniqueName="11" name="The chatbot’s personality was realistic and engaging" dataDxfId="0"/>
-    <x:tableColumn id="12" uniqueName="12" name="The chatbot seemed too robotic" dataDxfId="0"/>
-    <x:tableColumn id="13" uniqueName="13" name="The chatbot was welcoming during initial setup" dataDxfId="0"/>
-    <x:tableColumn id="14" uniqueName="14" name="The chatbot seemed very unfriendly" dataDxfId="0"/>
-    <x:tableColumn id="15" uniqueName="15" name="The chatbot explained its scope and purpose well" dataDxfId="0"/>
-    <x:tableColumn id="16" uniqueName="16" name="The chatbot gave no indication as to its purpose" dataDxfId="0"/>
-    <x:tableColumn id="17" uniqueName="17" name="The chatbot was easy to navigate" dataDxfId="0"/>
-    <x:tableColumn id="18" uniqueName="18" name="It would be easy to get confused when using the chatbot" dataDxfId="0"/>
-    <x:tableColumn id="19" uniqueName="19" name="The chatbot understood me well" dataDxfId="0"/>
-    <x:tableColumn id="20" uniqueName="20" name="The chatbot failed to recognise a lot of my inputs" dataDxfId="0"/>
-    <x:tableColumn id="21" uniqueName="21" name="Chatbot responses were useful, appropriate and informative" dataDxfId="0"/>
-    <x:tableColumn id="22" uniqueName="22" name="Chatbot responses were irrelevant" dataDxfId="0"/>
-    <x:tableColumn id="23" uniqueName="23" name="The chatbot coped well with any errors or mistakes" dataDxfId="0"/>
-    <x:tableColumn id="24" uniqueName="24" name="The chatbot seemed unable to handle any errors" dataDxfId="0"/>
-    <x:tableColumn id="25" uniqueName="25" name="The chatbot was very easy to use" dataDxfId="0"/>
-    <x:tableColumn id="26" uniqueName="26" name="The chatbot was very complex" dataDxfId="0"/>
-    <x:tableColumn id="27" uniqueName="27" name="Please complete the last three trials" dataDxfId="0"/>
-    <x:tableColumn id="28" uniqueName="28" name="The chatbot’s personality was realistic and engaging2" dataDxfId="0"/>
-    <x:tableColumn id="29" uniqueName="29" name="The chatbot seemed too robotic2" dataDxfId="0"/>
-    <x:tableColumn id="30" uniqueName="30" name="The chatbot was welcoming during initial setup2" dataDxfId="0"/>
-    <x:tableColumn id="31" uniqueName="31" name="The chatbot seemed very unfriendly2" dataDxfId="0"/>
-    <x:tableColumn id="32" uniqueName="32" name="The chatbot explained its scope and purpose well2" dataDxfId="0"/>
-    <x:tableColumn id="33" uniqueName="33" name="The chatbot gave no indication as to its purpose2" dataDxfId="0"/>
-    <x:tableColumn id="34" uniqueName="34" name="The chatbot was easy to navigate2" dataDxfId="0"/>
-    <x:tableColumn id="35" uniqueName="35" name="It would be easy to get confused when using the chatbot2" dataDxfId="0"/>
-    <x:tableColumn id="36" uniqueName="36" name="The chatbot understood me well2" dataDxfId="0"/>
-    <x:tableColumn id="37" uniqueName="37" name="The chatbot failed to recognise a lot of my inputs2" dataDxfId="0"/>
-    <x:tableColumn id="38" uniqueName="38" name="Chatbot responses were useful, appropriate and informative2" dataDxfId="0"/>
-    <x:tableColumn id="39" uniqueName="39" name="Chatbot responses were irrelevant2" dataDxfId="0"/>
-    <x:tableColumn id="40" uniqueName="40" name="The chatbot coped well with any errors or mistakes2" dataDxfId="0"/>
-    <x:tableColumn id="41" uniqueName="41" name="The chatbot seemed unable to handle any errors2" dataDxfId="0"/>
-    <x:tableColumn id="42" uniqueName="42" name="The chatbot was very easy to use2" dataDxfId="0"/>
-    <x:tableColumn id="43" uniqueName="43" name="The chatbot was very complex2" dataDxfId="0"/>
+    <x:tableColumn id="6" uniqueName="6" name="Language" dataDxfId="0"/>
+    <x:tableColumn id="7" uniqueName="7" name="Last modified time" dataDxfId="3"/>
+    <x:tableColumn id="8" uniqueName="8" name="​Experiment Description&#10;&#10;The aim of the project is to determine how the communication style of a chatbot impacts the perceived quality of it. The communication styles vary on formality of language..." dataDxfId="0"/>
+    <x:tableColumn id="9" uniqueName="9" name="Participant code" dataDxfId="0"/>
+    <x:tableColumn id="10" uniqueName="10" name="Age" dataDxfId="0"/>
+    <x:tableColumn id="11" uniqueName="11" name="Please complete the first three trials" dataDxfId="0"/>
+    <x:tableColumn id="12" uniqueName="12" name="The chatbot’s personality was realistic and engaging" dataDxfId="0"/>
+    <x:tableColumn id="13" uniqueName="13" name="The chatbot seemed too robotic" dataDxfId="0"/>
+    <x:tableColumn id="14" uniqueName="14" name="The chatbot was welcoming during initial setup" dataDxfId="0"/>
+    <x:tableColumn id="15" uniqueName="15" name="The chatbot seemed very unfriendly" dataDxfId="0"/>
+    <x:tableColumn id="16" uniqueName="16" name="The chatbot explained its scope and purpose well" dataDxfId="0"/>
+    <x:tableColumn id="17" uniqueName="17" name="The chatbot gave no indication as to its purpose" dataDxfId="0"/>
+    <x:tableColumn id="18" uniqueName="18" name="The chatbot was easy to navigate" dataDxfId="0"/>
+    <x:tableColumn id="19" uniqueName="19" name="It would be easy to get confused when using the chatbot" dataDxfId="0"/>
+    <x:tableColumn id="20" uniqueName="20" name="The chatbot understood me well" dataDxfId="0"/>
+    <x:tableColumn id="21" uniqueName="21" name="The chatbot failed to recognise a lot of my inputs" dataDxfId="0"/>
+    <x:tableColumn id="22" uniqueName="22" name="Chatbot responses were useful, appropriate and informative" dataDxfId="0"/>
+    <x:tableColumn id="23" uniqueName="23" name="Chatbot responses were irrelevant" dataDxfId="0"/>
+    <x:tableColumn id="24" uniqueName="24" name="The chatbot coped well with any errors or mistakes" dataDxfId="0"/>
+    <x:tableColumn id="25" uniqueName="25" name="The chatbot seemed unable to handle any errors" dataDxfId="0"/>
+    <x:tableColumn id="26" uniqueName="26" name="The chatbot was very easy to use" dataDxfId="0"/>
+    <x:tableColumn id="27" uniqueName="27" name="The chatbot was very complex" dataDxfId="0"/>
+    <x:tableColumn id="28" uniqueName="28" name="Please complete the last three trials" dataDxfId="0"/>
+    <x:tableColumn id="29" uniqueName="29" name="The chatbot’s personality was realistic and engaging2" dataDxfId="0"/>
+    <x:tableColumn id="30" uniqueName="30" name="The chatbot seemed too robotic2" dataDxfId="0"/>
+    <x:tableColumn id="31" uniqueName="31" name="The chatbot was welcoming during initial setup2" dataDxfId="0"/>
+    <x:tableColumn id="32" uniqueName="32" name="The chatbot seemed very unfriendly2" dataDxfId="0"/>
+    <x:tableColumn id="33" uniqueName="33" name="The chatbot explained its scope and purpose well2" dataDxfId="0"/>
+    <x:tableColumn id="34" uniqueName="34" name="The chatbot gave no indication as to its purpose2" dataDxfId="0"/>
+    <x:tableColumn id="35" uniqueName="35" name="The chatbot was easy to navigate2" dataDxfId="0"/>
+    <x:tableColumn id="36" uniqueName="36" name="It would be easy to get confused when using the chatbot2" dataDxfId="0"/>
+    <x:tableColumn id="37" uniqueName="37" name="The chatbot understood me well2" dataDxfId="0"/>
+    <x:tableColumn id="38" uniqueName="38" name="The chatbot failed to recognise a lot of my inputs2" dataDxfId="0"/>
+    <x:tableColumn id="39" uniqueName="39" name="Chatbot responses were useful, appropriate and informative2" dataDxfId="0"/>
+    <x:tableColumn id="40" uniqueName="40" name="Chatbot responses were irrelevant2" dataDxfId="0"/>
+    <x:tableColumn id="41" uniqueName="41" name="The chatbot coped well with any errors or mistakes2" dataDxfId="0"/>
+    <x:tableColumn id="42" uniqueName="42" name="The chatbot seemed unable to handle any errors2" dataDxfId="0"/>
+    <x:tableColumn id="43" uniqueName="43" name="The chatbot was very easy to use2" dataDxfId="0"/>
+    <x:tableColumn id="44" uniqueName="44" name="The chatbot was very complex2" dataDxfId="0"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
@@ -716,6 +732,7 @@
     <x:col min="41" max="41" width="20" hidden="0" bestFit="1" customWidth="1"/>
     <x:col min="42" max="42" width="20" hidden="0" bestFit="1" customWidth="1"/>
     <x:col min="43" max="43" width="20" hidden="0" bestFit="1" customWidth="1"/>
+    <x:col min="44" max="44" width="20" hidden="0" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" hidden="0">
@@ -848,6 +865,9 @@
       <x:c r="AQ1" s="10" t="s">
         <x:v>42</x:v>
       </x:c>
+      <x:c r="AR1" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
     </x:row>
     <x:row r="2" hidden="0">
       <x:c r="A2">
@@ -860,20 +880,18 @@
         <x:v>45223.6161111111</x:v>
       </x:c>
       <x:c r="D2" s="10" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E2" s="10" t="s"/>
-      <x:c r="F2" s="2"/>
-      <x:c r="G2" s="10" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="H2" s="7" t="s">
+      <x:c r="F2" s="10" t="s"/>
+      <x:c r="G2" s="2"/>
+      <x:c r="H2" s="10" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="I2" s="7" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="J2" s="10" t="s">
+      <x:c r="J2" s="7" t="s">
         <x:v>47</x:v>
       </x:c>
       <x:c r="K2" s="10" t="s">
@@ -883,97 +901,100 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="M2" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="N2" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="O2" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="P2" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="Q2" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="R2" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="S2" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="T2" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="U2" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="V2" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="W2" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="X2" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="Y2" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="Z2" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AA2" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AB2" s="10" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="N2" s="10" t="s">
+      <x:c r="AC2" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AD2" s="10" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="O2" s="10" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="P2" s="10" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="Q2" s="10" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="R2" s="10" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="S2" s="10" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="T2" s="10" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="U2" s="10" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="V2" s="10" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="W2" s="10" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="X2" s="10" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="Y2" s="10" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="Z2" s="10" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="AA2" s="10" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="AB2" s="10" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="AC2" s="10" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="AD2" s="10" t="s">
-        <x:v>52</x:v>
-      </x:c>
       <x:c r="AE2" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="AF2" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="AG2" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AH2" s="10" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="AI2" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="AJ2" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AK2" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="AL2" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AM2" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AN2" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="AO2" s="10" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="AP2" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="AQ2" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AR2" s="10" t="s">
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="3" hidden="0">
@@ -987,120 +1008,121 @@
         <x:v>45223.7124189815</x:v>
       </x:c>
       <x:c r="D3" s="10" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E3" s="10" t="s"/>
-      <x:c r="F3" s="2"/>
-      <x:c r="G3" s="10" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="H3" s="7" t="s">
-        <x:v>53</x:v>
+      <x:c r="F3" s="10" t="s"/>
+      <x:c r="G3" s="2"/>
+      <x:c r="H3" s="10" t="s">
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I3" s="7" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="J3" s="10" t="s">
-        <x:v>47</x:v>
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="J3" s="7" t="s">
+        <x:v>54</x:v>
       </x:c>
       <x:c r="K3" s="10" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="L3" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="M3" s="10" t="s">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N3" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="O3" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="P3" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="Q3" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="R3" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="S3" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="T3" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="U3" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="V3" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="W3" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="X3" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="Y3" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="Z3" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AA3" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AB3" s="10" t="s">
         <x:v>48</x:v>
-      </x:c>
-      <x:c r="P3" s="10" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="Q3" s="10" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="R3" s="10" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="S3" s="10" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="T3" s="10" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="U3" s="10" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="V3" s="10" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="W3" s="10" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="X3" s="10" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="Y3" s="10" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="Z3" s="10" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="AA3" s="10" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="AB3" s="10" t="s">
-        <x:v>49</x:v>
       </x:c>
       <x:c r="AC3" s="10" t="s">
         <x:v>50</x:v>
       </x:c>
       <x:c r="AD3" s="10" t="s">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="AE3" s="10" t="s">
         <x:v>50</x:v>
       </x:c>
       <x:c r="AF3" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="AG3" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AH3" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="AI3" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AJ3" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AK3" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AL3" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="AM3" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AN3" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="AO3" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="AP3" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="AQ3" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AR3" s="10" t="s">
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="4" hidden="0">
@@ -1114,120 +1136,121 @@
         <x:v>45223.9115509259</x:v>
       </x:c>
       <x:c r="D4" s="10" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E4" s="10" t="s"/>
-      <x:c r="F4" s="2"/>
-      <x:c r="G4" s="10" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="H4" s="7" t="s">
-        <x:v>54</x:v>
+      <x:c r="F4" s="10" t="s"/>
+      <x:c r="G4" s="2"/>
+      <x:c r="H4" s="10" t="s">
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I4" s="7" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="J4" s="10" t="s">
-        <x:v>47</x:v>
+      <x:c r="J4" s="7" t="s">
+        <x:v>56</x:v>
       </x:c>
       <x:c r="K4" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L4" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="M4" s="10" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="N4" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="O4" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="P4" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="Q4" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="R4" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="S4" s="10" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="R4" s="10" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="S4" s="10" t="s">
-        <x:v>51</x:v>
-      </x:c>
       <x:c r="T4" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="U4" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="V4" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="W4" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="X4" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="Y4" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="Z4" s="10" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="AA4" s="10" t="s">
-        <x:v>47</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="AB4" s="10" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="AC4" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AD4" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="AE4" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AF4" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="AG4" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AH4" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="AI4" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AJ4" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AK4" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AL4" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="AM4" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AN4" s="10" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="AO4" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="AP4" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="AQ4" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AR4" s="10" t="s">
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="5" hidden="0">
@@ -1241,36 +1264,34 @@
         <x:v>45224.7467476852</x:v>
       </x:c>
       <x:c r="D5" s="10" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E5" s="10" t="s"/>
-      <x:c r="F5" s="2"/>
-      <x:c r="G5" s="10" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="H5" s="7" t="s">
-        <x:v>56</x:v>
+      <x:c r="F5" s="10" t="s"/>
+      <x:c r="G5" s="2"/>
+      <x:c r="H5" s="10" t="s">
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I5" s="7" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="J5" s="10" t="s">
-        <x:v>47</x:v>
+      <x:c r="J5" s="7" t="s">
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K5" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L5" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="M5" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N5" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="O5" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="P5" s="10" t="s">
         <x:v>51</x:v>
@@ -1279,82 +1300,85 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="R5" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="S5" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="T5" s="10" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="U5" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="V5" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="W5" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="X5" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="Y5" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="Z5" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="AA5" s="10" t="s">
-        <x:v>47</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="AB5" s="10" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="AC5" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AD5" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="AE5" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AF5" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AG5" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AH5" s="10" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="AF5" s="10" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="AG5" s="10" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="AH5" s="10" t="s">
-        <x:v>48</x:v>
-      </x:c>
       <x:c r="AI5" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AJ5" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AK5" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="AL5" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="AM5" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AN5" s="10" t="s">
         <x:v>51</x:v>
       </x:c>
       <x:c r="AO5" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="AP5" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AQ5" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AR5" s="10" t="s">
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="6" hidden="0">
@@ -1368,120 +1392,121 @@
         <x:v>45224.7936458333</x:v>
       </x:c>
       <x:c r="D6" s="10" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E6" s="10" t="s"/>
-      <x:c r="F6" s="2"/>
-      <x:c r="G6" s="10" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="H6" s="7" t="s">
-        <x:v>58</x:v>
+      <x:c r="F6" s="10" t="s"/>
+      <x:c r="G6" s="2"/>
+      <x:c r="H6" s="10" t="s">
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I6" s="7" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="J6" s="10" t="s">
-        <x:v>47</x:v>
+      <x:c r="J6" s="7" t="s">
+        <x:v>60</x:v>
       </x:c>
       <x:c r="K6" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L6" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="M6" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N6" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="O6" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="P6" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="Q6" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="R6" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="S6" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="T6" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="U6" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="V6" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="W6" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="X6" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="Y6" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="Z6" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AA6" s="10" t="s">
-        <x:v>47</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="AB6" s="10" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="AC6" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AD6" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="AE6" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AF6" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="AG6" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AH6" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="AI6" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="AJ6" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="AK6" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="AL6" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AM6" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="AN6" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="AO6" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="AP6" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AQ6" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AR6" s="10" t="s">
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="7" hidden="0">
@@ -1495,120 +1520,121 @@
         <x:v>45224.8468171296</x:v>
       </x:c>
       <x:c r="D7" s="10" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E7" s="10" t="s"/>
-      <x:c r="F7" s="2"/>
-      <x:c r="G7" s="10" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="H7" s="7" t="s">
-        <x:v>60</x:v>
+      <x:c r="F7" s="10" t="s"/>
+      <x:c r="G7" s="2"/>
+      <x:c r="H7" s="10" t="s">
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I7" s="7" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="J7" s="10" t="s">
-        <x:v>47</x:v>
+      <x:c r="J7" s="7" t="s">
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K7" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L7" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M7" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="N7" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="O7" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="P7" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="Q7" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="R7" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="S7" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="T7" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="U7" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="V7" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="W7" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="X7" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="Y7" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="Z7" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AA7" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AB7" s="10" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="N7" s="10" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="O7" s="10" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="P7" s="10" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="Q7" s="10" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="R7" s="10" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="S7" s="10" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="T7" s="10" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="U7" s="10" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="V7" s="10" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="W7" s="10" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="X7" s="10" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="Y7" s="10" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="Z7" s="10" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="AA7" s="10" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="AB7" s="10" t="s">
-        <x:v>52</x:v>
-      </x:c>
       <x:c r="AC7" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="AD7" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="AE7" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AF7" s="10" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="AG7" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="AH7" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AI7" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AJ7" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="AK7" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="AL7" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AM7" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="AN7" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="AO7" s="10" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="AP7" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="AQ7" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AR7" s="10" t="s">
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="8" hidden="0">
@@ -1622,120 +1648,121 @@
         <x:v>45224.9657638889</x:v>
       </x:c>
       <x:c r="D8" s="10" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E8" s="10" t="s"/>
-      <x:c r="F8" s="2"/>
-      <x:c r="G8" s="10" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="H8" s="7" t="s">
-        <x:v>62</x:v>
+      <x:c r="F8" s="10" t="s"/>
+      <x:c r="G8" s="2"/>
+      <x:c r="H8" s="10" t="s">
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I8" s="7" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="J8" s="10" t="s">
-        <x:v>47</x:v>
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="J8" s="7" t="s">
+        <x:v>60</x:v>
       </x:c>
       <x:c r="K8" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L8" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="M8" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="N8" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="O8" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="P8" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="Q8" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="R8" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="S8" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="T8" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="U8" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="V8" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="W8" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="X8" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="Y8" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="Z8" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AA8" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AB8" s="10" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="M8" s="10" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="N8" s="10" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="O8" s="10" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="P8" s="10" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="Q8" s="10" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="R8" s="10" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="S8" s="10" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="T8" s="10" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="U8" s="10" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="V8" s="10" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="W8" s="10" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="X8" s="10" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="Y8" s="10" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="Z8" s="10" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="AA8" s="10" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="AB8" s="10" t="s">
-        <x:v>51</x:v>
-      </x:c>
       <x:c r="AC8" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="AD8" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="AE8" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AF8" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="AG8" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="AH8" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AI8" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AJ8" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="AK8" s="10" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="AL8" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="AM8" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="AN8" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="AO8" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="AP8" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AQ8" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AR8" s="10" t="s">
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="9" hidden="0">
@@ -1749,30 +1776,28 @@
         <x:v>45224.9814814815</x:v>
       </x:c>
       <x:c r="D9" s="10" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E9" s="10" t="s"/>
-      <x:c r="F9" s="2"/>
-      <x:c r="G9" s="10" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="H9" s="7" t="s">
-        <x:v>63</x:v>
+      <x:c r="F9" s="10" t="s"/>
+      <x:c r="G9" s="2"/>
+      <x:c r="H9" s="10" t="s">
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I9" s="7" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="J9" s="10" t="s">
-        <x:v>47</x:v>
+      <x:c r="J9" s="7" t="s">
+        <x:v>65</x:v>
       </x:c>
       <x:c r="K9" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L9" s="10" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="M9" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N9" s="10" t="s">
         <x:v>49</x:v>
@@ -1781,88 +1806,91 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="P9" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="Q9" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="R9" s="10" t="s">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="S9" s="10" t="s">
         <x:v>50</x:v>
       </x:c>
       <x:c r="T9" s="10" t="s">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="U9" s="10" t="s">
         <x:v>50</x:v>
       </x:c>
       <x:c r="V9" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="W9" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="X9" s="10" t="s">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="Y9" s="10" t="s">
         <x:v>50</x:v>
       </x:c>
       <x:c r="Z9" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AA9" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AB9" s="10" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="AA9" s="10" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="AB9" s="10" t="s">
-        <x:v>52</x:v>
-      </x:c>
       <x:c r="AC9" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="AD9" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AE9" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AF9" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="AG9" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AH9" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="AI9" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AJ9" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="AK9" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AL9" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="AM9" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AN9" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="AO9" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="AP9" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="AQ9" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AR9" s="10" t="s">
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="10" hidden="0">
@@ -1876,127 +1904,514 @@
         <x:v>45225.1474305556</x:v>
       </x:c>
       <x:c r="D10" s="10" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E10" s="10" t="s"/>
-      <x:c r="F10" s="2"/>
-      <x:c r="G10" s="10" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="H10" s="7" t="s">
-        <x:v>55</x:v>
+      <x:c r="F10" s="10" t="s"/>
+      <x:c r="G10" s="2"/>
+      <x:c r="H10" s="10" t="s">
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I10" s="7" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="J10" s="10" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="J10" s="7" t="s">
         <x:v>47</x:v>
       </x:c>
       <x:c r="K10" s="10" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="L10" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="M10" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N10" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="O10" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="P10" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="Q10" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="R10" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="S10" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="T10" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="U10" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="V10" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="W10" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="X10" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="Y10" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="Z10" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AA10" s="10" t="s">
-        <x:v>47</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="AB10" s="10" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="AC10" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="AD10" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AE10" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AF10" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AG10" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AH10" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AI10" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AJ10" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AK10" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AL10" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AM10" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AN10" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AO10" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AP10" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AQ10" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AR10" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" hidden="0">
+      <x:c r="A11">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B11" s="2">
+        <x:v>45225.5360763889</x:v>
+      </x:c>
+      <x:c r="C11" s="2">
+        <x:v>45225.5461689815</x:v>
+      </x:c>
+      <x:c r="D11" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E11" s="10" t="s"/>
+      <x:c r="F11" s="10" t="s"/>
+      <x:c r="G11" s="2"/>
+      <x:c r="H11" s="10" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="I11" s="7" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="J11" s="7" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="K11" s="10" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="AE10" s="10" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="AF10" s="10" t="s">
+      <x:c r="L11" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="M11" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="N11" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="O11" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="P11" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="Q11" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="R11" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="S11" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="T11" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="U11" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="V11" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="W11" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="X11" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="Y11" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="Z11" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AA11" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AB11" s="10" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="AG10" s="10" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="AH10" s="10" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="AI10" s="10" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="AJ10" s="10" t="s">
+      <x:c r="AC11" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="AD11" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AE11" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AF11" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AG11" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AH11" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AI11" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AJ11" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AK11" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AL11" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AM11" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AN11" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AO11" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AP11" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AQ11" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AR11" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" hidden="0">
+      <x:c r="A12">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B12" s="2">
+        <x:v>45225.5870717593</x:v>
+      </x:c>
+      <x:c r="C12" s="2">
+        <x:v>45225.6023148148</x:v>
+      </x:c>
+      <x:c r="D12" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E12" s="10" t="s"/>
+      <x:c r="F12" s="10" t="s"/>
+      <x:c r="G12" s="2"/>
+      <x:c r="H12" s="10" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="I12" s="7" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="J12" s="7" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="K12" s="10" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="AK10" s="10" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="AL10" s="10" t="s">
+      <x:c r="L12" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="M12" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="N12" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="O12" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="P12" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="Q12" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="R12" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="S12" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="T12" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="U12" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="V12" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="W12" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="X12" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="Y12" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="Z12" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AA12" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AB12" s="10" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="AM10" s="10" t="s">
+      <x:c r="AC12" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AD12" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AE12" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="AF12" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AG12" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AH12" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AI12" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AJ12" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AK12" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AL12" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AM12" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AN12" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AO12" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AP12" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AQ12" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AR12" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" hidden="0">
+      <x:c r="A13">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B13" s="2">
+        <x:v>45225.6099074074</x:v>
+      </x:c>
+      <x:c r="C13" s="2">
+        <x:v>45225.6283796296</x:v>
+      </x:c>
+      <x:c r="D13" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E13" s="10" t="s"/>
+      <x:c r="F13" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="G13" s="2"/>
+      <x:c r="H13" s="10" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="I13" s="7" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="J13" s="7" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="K13" s="10" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="AN10" s="10" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="AO10" s="10" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="AP10" s="10" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="AQ10" s="10" t="s">
+      <x:c r="L13" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="M13" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="N13" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="O13" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="P13" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="Q13" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="R13" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="S13" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="T13" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="U13" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="V13" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="W13" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="X13" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="Y13" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="Z13" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AA13" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AB13" s="10" t="s">
         <x:v>48</x:v>
+      </x:c>
+      <x:c r="AC13" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AD13" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AE13" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AF13" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AG13" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AH13" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AI13" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AJ13" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AK13" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AL13" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AM13" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AN13" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AO13" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AP13" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AQ13" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AR13" s="10" t="s">
+        <x:v>52</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <x:tableParts count="1">
-    <x:tablePart r:id="R2cb2a6f052224a73"/>
+    <x:tablePart r:id="Rb3549708c80544e8"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/res/user_data/questionare.xlsx
+++ b/res/user_data/questionare.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <x:si>
     <x:t xml:space="preserve">ID</x:t>
   </x:si>
@@ -236,6 +236,39 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">21</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">10</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">31</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">11</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">32</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">12</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">13</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">14</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">4</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">5</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">59</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">64</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -332,8 +365,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AR13" insertRow="1" totalsRowShown="0">
-  <x:autoFilter ref="A1:AR13"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AR24" insertRow="1" totalsRowShown="0">
+  <x:autoFilter ref="A1:AR24"/>
   <x:tableColumns count="44">
     <x:tableColumn id="1" uniqueName="1" name="ID" dataDxfId="0"/>
     <x:tableColumn id="2" uniqueName="2" name="Start time" dataDxfId="3"/>
@@ -2407,11 +2440,1441 @@
         <x:v>52</x:v>
       </x:c>
     </x:row>
+    <x:row r="14" hidden="0">
+      <x:c r="A14">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B14" s="2">
+        <x:v>45225.6799884259</x:v>
+      </x:c>
+      <x:c r="C14" s="2">
+        <x:v>45225.6912615741</x:v>
+      </x:c>
+      <x:c r="D14" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E14" s="10" t="s"/>
+      <x:c r="F14" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="G14" s="2"/>
+      <x:c r="H14" s="10" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="I14" s="7" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="J14" s="7" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="K14" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="L14" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="M14" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="N14" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="O14" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="P14" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="Q14" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="R14" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="S14" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="T14" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="U14" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="V14" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="W14" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="X14" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="Y14" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="Z14" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AA14" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AB14" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AC14" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AD14" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AE14" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="AF14" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AG14" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AH14" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AI14" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AJ14" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AK14" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AL14" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AM14" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AN14" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AO14" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AP14" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AQ14" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AR14" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" hidden="0">
+      <x:c r="A15">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B15" s="2">
+        <x:v>45226.5371064815</x:v>
+      </x:c>
+      <x:c r="C15" s="2">
+        <x:v>45226.5520138889</x:v>
+      </x:c>
+      <x:c r="D15" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E15" s="10" t="s"/>
+      <x:c r="F15" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="G15" s="2"/>
+      <x:c r="H15" s="10" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="I15" s="7" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="J15" s="7" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="K15" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="L15" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="M15" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="N15" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="O15" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="P15" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="Q15" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="R15" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="S15" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="T15" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="U15" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="V15" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="W15" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="X15" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="Y15" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="Z15" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AA15" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AB15" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AC15" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AD15" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AE15" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AF15" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AG15" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AH15" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AI15" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AJ15" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AK15" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AL15" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AM15" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="AN15" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AO15" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AP15" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AQ15" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AR15" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" hidden="0">
+      <x:c r="A16">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B16" s="2">
+        <x:v>45226.7077199074</x:v>
+      </x:c>
+      <x:c r="C16" s="2">
+        <x:v>45226.7215393518</x:v>
+      </x:c>
+      <x:c r="D16" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E16" s="10" t="s"/>
+      <x:c r="F16" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="G16" s="2"/>
+      <x:c r="H16" s="10" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="I16" s="7" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J16" s="7" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="K16" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="L16" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="M16" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="N16" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="O16" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="P16" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="Q16" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="R16" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="S16" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="T16" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="U16" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="V16" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="W16" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="X16" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="Y16" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="Z16" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AA16" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AB16" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AC16" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AD16" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AE16" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AF16" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AG16" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AH16" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AI16" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AJ16" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="AK16" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AL16" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="AM16" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AN16" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AO16" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AP16" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="AQ16" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AR16" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" hidden="0">
+      <x:c r="A17">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B17" s="2">
+        <x:v>45226.7216319444</x:v>
+      </x:c>
+      <x:c r="C17" s="2">
+        <x:v>45226.7314467593</x:v>
+      </x:c>
+      <x:c r="D17" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E17" s="10" t="s"/>
+      <x:c r="F17" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="G17" s="2"/>
+      <x:c r="H17" s="10" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="I17" s="7" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="J17" s="7" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="K17" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="L17" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="M17" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="N17" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="O17" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="P17" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="Q17" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="R17" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="S17" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="T17" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="U17" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="V17" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="W17" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="X17" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="Y17" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="Z17" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="AA17" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AB17" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AC17" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AD17" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AE17" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="AF17" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AG17" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="AH17" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AI17" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AJ17" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AK17" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AL17" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AM17" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AN17" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AO17" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AP17" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AQ17" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AR17" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" hidden="0">
+      <x:c r="A18">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B18" s="2">
+        <x:v>45226.7341319444</x:v>
+      </x:c>
+      <x:c r="C18" s="2">
+        <x:v>45226.7481597222</x:v>
+      </x:c>
+      <x:c r="D18" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E18" s="10" t="s"/>
+      <x:c r="F18" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="G18" s="2"/>
+      <x:c r="H18" s="10" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="I18" s="7" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="J18" s="7" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K18" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="L18" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="M18" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="N18" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="O18" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="P18" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="Q18" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="R18" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="S18" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="T18" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="U18" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="V18" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="W18" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="X18" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="Y18" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="Z18" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AA18" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AB18" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AC18" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="AD18" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AE18" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="AF18" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AG18" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AH18" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AI18" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AJ18" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AK18" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AL18" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AM18" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="AN18" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AO18" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AP18" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AQ18" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AR18" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" hidden="0">
+      <x:c r="A19">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B19" s="2">
+        <x:v>45226.7482986111</x:v>
+      </x:c>
+      <x:c r="C19" s="2">
+        <x:v>45226.7625925926</x:v>
+      </x:c>
+      <x:c r="D19" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E19" s="10" t="s"/>
+      <x:c r="F19" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="G19" s="2"/>
+      <x:c r="H19" s="10" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="I19" s="7" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="J19" s="7" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="K19" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="L19" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="M19" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="N19" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="O19" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="P19" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="Q19" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="R19" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="S19" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="T19" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="U19" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="V19" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="W19" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="X19" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="Y19" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="Z19" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AA19" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AB19" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AC19" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AD19" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AE19" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="AF19" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AG19" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AH19" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AI19" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AJ19" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AK19" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AL19" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AM19" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AN19" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AO19" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AP19" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AQ19" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AR19" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" hidden="0">
+      <x:c r="A20">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B20" s="2">
+        <x:v>45227.8634953704</x:v>
+      </x:c>
+      <x:c r="C20" s="2">
+        <x:v>45227.8769328704</x:v>
+      </x:c>
+      <x:c r="D20" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E20" s="10" t="s"/>
+      <x:c r="F20" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="G20" s="2"/>
+      <x:c r="H20" s="10" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="I20" s="7" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="J20" s="7" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="K20" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="L20" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="M20" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="N20" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="O20" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="P20" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="Q20" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="R20" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="S20" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="T20" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="U20" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="V20" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="W20" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="X20" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="Y20" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="Z20" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AA20" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AB20" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AC20" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AD20" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AE20" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AF20" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AG20" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AH20" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AI20" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AJ20" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AK20" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AL20" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AM20" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AN20" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AO20" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AP20" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AQ20" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AR20" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" hidden="0">
+      <x:c r="A21">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B21" s="2">
+        <x:v>45227.8790856481</x:v>
+      </x:c>
+      <x:c r="C21" s="2">
+        <x:v>45227.8856481481</x:v>
+      </x:c>
+      <x:c r="D21" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E21" s="10" t="s"/>
+      <x:c r="F21" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="G21" s="2"/>
+      <x:c r="H21" s="10" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="I21" s="7" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="J21" s="7" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="K21" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="L21" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="M21" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="N21" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="O21" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="P21" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="Q21" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="R21" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="S21" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="T21" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="U21" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="V21" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="W21" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="X21" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="Y21" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="Z21" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AA21" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AB21" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AC21" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AD21" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AE21" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AF21" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AG21" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AH21" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AI21" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AJ21" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AK21" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AL21" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AM21" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AN21" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AO21" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AP21" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AQ21" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AR21" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" hidden="0">
+      <x:c r="A22">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B22" s="2">
+        <x:v>45227.8939699074</x:v>
+      </x:c>
+      <x:c r="C22" s="2">
+        <x:v>45227.9029166667</x:v>
+      </x:c>
+      <x:c r="D22" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E22" s="10" t="s"/>
+      <x:c r="F22" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="G22" s="2"/>
+      <x:c r="H22" s="10" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="I22" s="7" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="J22" s="7" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="K22" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="L22" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="M22" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="N22" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="O22" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="P22" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="Q22" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="R22" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="S22" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="T22" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="U22" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="V22" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="W22" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="X22" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="Y22" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="Z22" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AA22" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AB22" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AC22" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AD22" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AE22" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AF22" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AG22" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AH22" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AI22" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AJ22" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AK22" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AL22" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="AM22" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AN22" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AO22" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AP22" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AQ22" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AR22" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" hidden="0">
+      <x:c r="A23">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B23" s="2">
+        <x:v>45229.4355439815</x:v>
+      </x:c>
+      <x:c r="C23" s="2">
+        <x:v>45229.4730671296</x:v>
+      </x:c>
+      <x:c r="D23" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E23" s="10" t="s"/>
+      <x:c r="F23" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="G23" s="2"/>
+      <x:c r="H23" s="10" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="I23" s="7" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="J23" s="7" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="K23" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="L23" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="M23" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="N23" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="O23" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="P23" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="Q23" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="R23" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="S23" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="T23" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="U23" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="V23" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="W23" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="X23" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="Y23" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="Z23" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AA23" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AB23" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AC23" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AD23" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AE23" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AF23" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AG23" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AH23" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AI23" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AJ23" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AK23" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AL23" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AM23" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AN23" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AO23" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AP23" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AQ23" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AR23" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" hidden="0">
+      <x:c r="A24">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B24" s="2">
+        <x:v>45229.4808680556</x:v>
+      </x:c>
+      <x:c r="C24" s="2">
+        <x:v>45229.5133912037</x:v>
+      </x:c>
+      <x:c r="D24" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E24" s="10" t="s"/>
+      <x:c r="F24" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="G24" s="2"/>
+      <x:c r="H24" s="10" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="I24" s="7" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="J24" s="7" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="K24" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="L24" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="M24" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="N24" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="O24" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="P24" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="Q24" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="R24" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="S24" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="T24" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="U24" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="V24" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="W24" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="X24" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="Y24" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="Z24" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AA24" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AB24" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AC24" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AD24" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AE24" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AF24" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AG24" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AH24" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AI24" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AJ24" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AK24" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AL24" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AM24" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AN24" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AO24" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AP24" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AQ24" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AR24" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <x:tableParts count="1">
-    <x:tablePart r:id="Rb3549708c80544e8"/>
+    <x:tablePart r:id="Rbe507f8f2e494d26"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/res/user_data/questionare.xlsx
+++ b/res/user_data/questionare.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <x:si>
     <x:t xml:space="preserve">ID</x:t>
   </x:si>
@@ -269,6 +269,18 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">64</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">15</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">16</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">22</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">17</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -365,8 +377,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AR24" insertRow="1" totalsRowShown="0">
-  <x:autoFilter ref="A1:AR24"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AR27" insertRow="1" totalsRowShown="0">
+  <x:autoFilter ref="A1:AR27"/>
   <x:tableColumns count="44">
     <x:tableColumn id="1" uniqueName="1" name="ID" dataDxfId="0"/>
     <x:tableColumn id="2" uniqueName="2" name="Start time" dataDxfId="3"/>
@@ -3870,11 +3882,401 @@
         <x:v>49</x:v>
       </x:c>
     </x:row>
+    <x:row r="25" hidden="0">
+      <x:c r="A25">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B25" s="2">
+        <x:v>45232.9012615741</x:v>
+      </x:c>
+      <x:c r="C25" s="2">
+        <x:v>45232.9295486111</x:v>
+      </x:c>
+      <x:c r="D25" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E25" s="10" t="s"/>
+      <x:c r="F25" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="G25" s="2"/>
+      <x:c r="H25" s="10" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="I25" s="7" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="J25" s="7" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="K25" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="L25" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="M25" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="N25" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="O25" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="P25" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="Q25" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="R25" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="S25" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="T25" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="U25" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="V25" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="W25" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="X25" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="Y25" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="Z25" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AA25" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AB25" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AC25" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AD25" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AE25" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AF25" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AG25" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AH25" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AI25" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AJ25" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AK25" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AL25" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AM25" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AN25" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AO25" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AP25" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AQ25" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AR25" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" hidden="0">
+      <x:c r="A26">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B26" s="2">
+        <x:v>45232.9013425926</x:v>
+      </x:c>
+      <x:c r="C26" s="2">
+        <x:v>45232.9615972222</x:v>
+      </x:c>
+      <x:c r="D26" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E26" s="10" t="s"/>
+      <x:c r="F26" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="G26" s="2"/>
+      <x:c r="H26" s="10" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="I26" s="7" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="J26" s="7" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="K26" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="L26" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="M26" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="N26" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="O26" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="P26" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="Q26" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="R26" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="S26" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="T26" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="U26" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="V26" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="W26" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="X26" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="Y26" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="Z26" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AA26" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AB26" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AC26" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AD26" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AE26" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AF26" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AG26" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AH26" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AI26" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AJ26" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AK26" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AL26" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AM26" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AN26" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AO26" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AP26" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AQ26" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AR26" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" hidden="0">
+      <x:c r="A27">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B27" s="2">
+        <x:v>45234.7228125</x:v>
+      </x:c>
+      <x:c r="C27" s="2">
+        <x:v>45234.7375810185</x:v>
+      </x:c>
+      <x:c r="D27" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E27" s="10" t="s"/>
+      <x:c r="F27" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="G27" s="2"/>
+      <x:c r="H27" s="10" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="I27" s="7" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="J27" s="7" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="K27" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="L27" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="M27" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="N27" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="O27" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="P27" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="Q27" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="R27" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="S27" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="T27" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="U27" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="V27" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="W27" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="X27" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="Y27" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="Z27" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AA27" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AB27" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AC27" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="AD27" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AE27" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AF27" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AG27" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AH27" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AI27" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="AJ27" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AK27" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AL27" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AM27" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AN27" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AO27" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AP27" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AQ27" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AR27" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <x:tableParts count="1">
-    <x:tablePart r:id="Rbe507f8f2e494d26"/>
+    <x:tablePart r:id="R83d17b016757414f"/>
   </x:tableParts>
 </x:worksheet>
 </file>